--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.637100000000004</v>
+        <v>8.292000000000007</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -474,12 +474,12 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.57610000000001</v>
+        <v>16.66670000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.7038</v>
+        <v>-21.6394</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.357699999999993</v>
+        <v>-7.275599999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.42760000000001</v>
+        <v>16.50910000000001</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.359400000000003</v>
+        <v>-7.336800000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.68699999999998</v>
+        <v>-21.66629999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.78749999999998</v>
+        <v>-21.74339999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.806899999999996</v>
+        <v>6.805899999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.2707</v>
+        <v>16.2626</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.19869999999997</v>
+        <v>-20.25079999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.75389999999998</v>
+        <v>-20.81319999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,30 +839,30 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.568199999999999</v>
+        <v>5.516800000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.6601</v>
+        <v>-7.757300000000002</v>
       </c>
       <c r="E24" t="n">
-        <v>16.49820000000001</v>
+        <v>16.7023</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.83349999999998</v>
+        <v>-21.85199999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5.906800000000004</v>
+        <v>6.443600000000004</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.693799999999996</v>
+        <v>-8.984499999999992</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.99249999999996</v>
+        <v>-21.21809999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.190300000000007</v>
+        <v>6.092800000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.45039999999999</v>
+        <v>16.65709999999999</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.81609999999998</v>
+        <v>-20.70969999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.487299999999996</v>
+        <v>6.571200000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.54170000000001</v>
+        <v>15.43529999999999</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.142400000000001</v>
+        <v>6.207800000000004</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.14100000000001</v>
+        <v>15.87629999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.93500000000002</v>
+        <v>16.86620000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.271500000000005</v>
+        <v>9.286000000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.7738</v>
+        <v>-19.4483</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.038199999999994</v>
+        <v>-8.569499999999993</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.14329999999999</v>
+        <v>10.05659999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4604</v>
+        <v>16.4403</v>
       </c>
     </row>
     <row r="43">
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.555400000000002</v>
+        <v>5.7057</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.000700000000002</v>
+        <v>-8.066500000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.902099999999997</v>
+        <v>5.730799999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.152</v>
+        <v>5.397499999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.0911</v>
+        <v>-21.9583</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.0671</v>
+        <v>-6.081300000000002</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.405699999999995</v>
+        <v>6.566299999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.4028</v>
+        <v>16.511</v>
       </c>
     </row>
     <row r="56">
@@ -1383,13 +1383,13 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.361099999999994</v>
+        <v>5.606299999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.801599999999999</v>
+        <v>-7.865099999999995</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.37820000000001</v>
+        <v>-22.34340000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>4.680199999999994</v>
+        <v>4.405599999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.521700000000003</v>
+        <v>-8.555600000000005</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,15 +1423,15 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.257500000000004</v>
+        <v>-8.504700000000007</v>
       </c>
       <c r="E58" t="n">
-        <v>16.35840000000001</v>
+        <v>16.3822</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.45119999999999</v>
+        <v>-22.4848</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.661400000000003</v>
+        <v>5.659699999999999</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.757999999999999</v>
+        <v>-7.6323</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.830400000000004</v>
+        <v>-7.598200000000004</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.904299999999998</v>
+        <v>-7.501299999999998</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.85239999999999</v>
+        <v>-21.88249999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.01100000000002</v>
+        <v>17.19150000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58849999999999</v>
+        <v>-21.5896</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.146200000000004</v>
+        <v>-8.029800000000005</v>
       </c>
       <c r="E70" t="n">
-        <v>16.8351</v>
+        <v>16.5714</v>
       </c>
     </row>
     <row r="71">
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.390599999999999</v>
+        <v>-7.615299999999998</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.945799999999997</v>
+        <v>8.721399999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.619499999999999</v>
+        <v>9.427499999999988</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.4422</v>
+        <v>16.36579999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.5179</v>
+        <v>16.66730000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.3263</v>
+        <v>-20.447</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9207</v>
+        <v>-21.9218</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.7245</v>
+        <v>16.81250000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.77979999999999</v>
+        <v>16.34219999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.678700000000003</v>
+        <v>-8.572500000000003</v>
       </c>
       <c r="E86" t="n">
-        <v>16.1004</v>
+        <v>16.32990000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1944,13 +1944,13 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.801999999999992</v>
+        <v>4.778599999999992</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.720500000000004</v>
+        <v>-5.728000000000003</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.858800000000005</v>
+        <v>6.203900000000002</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.38660000000002</v>
+        <v>-21.35310000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.956199999999995</v>
+        <v>4.926699999999993</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.07949999999998</v>
+        <v>-21.02979999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.0917</v>
+        <v>16.46769999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.87120000000001</v>
+        <v>16.89150000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.5604</v>
+        <v>-8.691899999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.15529999999999</v>
+        <v>-22.03649999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.391300000000003</v>
+        <v>-8.329999999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.407799999999995</v>
+        <v>-7.987199999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
